--- a/docs/StructureDefinition-VA.MHV.PHR.cbcTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.cbcTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,8 +91,8 @@
 - 'chemistryResults`
   - `valueInterpretation` -&gt; `.interpretation` (mock data has `L`, `H`, or absent) (? low, high, normal ?)
   - `observedStatus` (mock data has `F`, `C`, ) (? final vs preliminary ?)
-  - `testIdentifier` -&gt; `.code`
-  - `referenceRange` -&gt; `.referenceRange`
+  - `testIdentifier` -&gt; `.code` -- where "LN" is Loinc
+  - `referenceRange` -&gt; `.referenceRange.text` -- don't try to break out further as there is little use of this value
   - `labCommentEvents` -&gt; `.note.text`
   - `observationValue` -&gt; `.valueQuantity.value`
   - `observationUnits.unit` -&gt; `.valueQuantity.unit`
@@ -770,7 +770,7 @@
 </t>
   </si>
   <si>
-    <t>LabTestTO.loinc</t>
+    <t>testIdentifier.code</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -794,7 +794,7 @@
     <t>Observation.code.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
+    <t>testIdentifier.displayText</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -4555,7 +4555,7 @@
         <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" hidden="true">
